--- a/data/trans_orig/P2A_lim_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P2A_lim_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7A82D4F6-4ADC-45F8-9F6D-60EF7105C006}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{11EF9D89-55CE-4B36-9F0E-ED4687186AB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F2B775E9-F873-44DB-B0F1-5E883659619A}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{4A125C65-4388-48CC-BDA1-9E557393A12A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,9 +39,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="599">
-  <si>
-    <t>Hogares según si tienen personas con alguna limitación en 2007 (Tasa respuesta: 100,0%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1392" uniqueCount="671">
+  <si>
+    <t>Hogares según si tienen personas con alguna limitación (física, sensorial o psíquica) en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Ns/Nc</t>
@@ -95,7 +95,7 @@
     <t>0,54%</t>
   </si>
   <si>
-    <t>SÍ</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>2,02%</t>
@@ -122,7 +122,7 @@
     <t>4,29%</t>
   </si>
   <si>
-    <t>NO</t>
+    <t>No</t>
   </si>
   <si>
     <t>97,78%</t>
@@ -155,7 +155,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>0,41%</t>
@@ -230,7 +230,7 @@
     <t>97,39%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>0,14%</t>
@@ -302,7 +302,7 @@
     <t>95,43%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>0,52%</t>
@@ -380,7 +380,7 @@
     <t>92,44%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>1,21%</t>
@@ -446,1396 +446,1612 @@
     <t>90,85%</t>
   </si>
   <si>
-    <t>65 y más</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>88,04%</t>
+  </si>
+  <si>
+    <t>83,79%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>88,93%</t>
+  </si>
+  <si>
+    <t>85,24%</t>
+  </si>
+  <si>
+    <t>91,71%</t>
+  </si>
+  <si>
+    <t>88,52%</t>
+  </si>
+  <si>
+    <t>85,76%</t>
+  </si>
+  <si>
+    <t>90,65%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>84,6%</t>
+  </si>
+  <si>
+    <t>79,8%</t>
+  </si>
+  <si>
+    <t>89,09%</t>
+  </si>
+  <si>
+    <t>82,89%</t>
+  </si>
+  <si>
+    <t>78,08%</t>
+  </si>
+  <si>
+    <t>87,05%</t>
+  </si>
+  <si>
+    <t>83,55%</t>
+  </si>
+  <si>
+    <t>80,03%</t>
+  </si>
+  <si>
+    <t>86,43%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>92,15%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
+  </si>
+  <si>
+    <t>90,82%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>91,81%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Hogares según si tienen personas con alguna limitación (física, sensorial o psíquica) en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>93,28%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
+  </si>
+  <si>
+    <t>91,85%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
+  </si>
+  <si>
+    <t>93,2%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>92,21%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>92,63%</t>
+  </si>
+  <si>
+    <t>90,41%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
+  </si>
+  <si>
+    <t>90,27%</t>
+  </si>
+  <si>
+    <t>87,71%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>89,83%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>90,34%</t>
+  </si>
+  <si>
+    <t>87,6%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>87,41%</t>
+  </si>
+  <si>
+    <t>84,34%</t>
+  </si>
+  <si>
+    <t>89,9%</t>
+  </si>
+  <si>
+    <t>88,87%</t>
+  </si>
+  <si>
+    <t>86,63%</t>
+  </si>
+  <si>
+    <t>90,67%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>83,08%</t>
+  </si>
+  <si>
+    <t>89,69%</t>
+  </si>
+  <si>
+    <t>85,53%</t>
+  </si>
+  <si>
+    <t>81,86%</t>
+  </si>
+  <si>
+    <t>88,67%</t>
+  </si>
+  <si>
+    <t>86,07%</t>
+  </si>
+  <si>
+    <t>83,61%</t>
+  </si>
+  <si>
+    <t>88,38%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>84,45%</t>
+  </si>
+  <si>
+    <t>79,31%</t>
+  </si>
+  <si>
+    <t>88,39%</t>
+  </si>
+  <si>
+    <t>86,18%</t>
+  </si>
+  <si>
+    <t>81,68%</t>
+  </si>
+  <si>
+    <t>89,67%</t>
+  </si>
+  <si>
+    <t>85,37%</t>
+  </si>
+  <si>
+    <t>82,29%</t>
+  </si>
+  <si>
+    <t>88,02%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>27,14%</t>
+  </si>
+  <si>
+    <t>21,77%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>79,44%</t>
+  </si>
+  <si>
+    <t>73,2%</t>
+  </si>
+  <si>
+    <t>84,85%</t>
+  </si>
+  <si>
+    <t>77,46%</t>
+  </si>
+  <si>
+    <t>72,86%</t>
+  </si>
+  <si>
+    <t>81,57%</t>
+  </si>
+  <si>
+    <t>78,23%</t>
+  </si>
+  <si>
+    <t>74,58%</t>
+  </si>
+  <si>
+    <t>81,53%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>90,38%</t>
+  </si>
+  <si>
+    <t>89,26%</t>
+  </si>
+  <si>
+    <t>91,41%</t>
+  </si>
+  <si>
+    <t>88,43%</t>
+  </si>
+  <si>
+    <t>87,33%</t>
+  </si>
+  <si>
+    <t>89,55%</t>
+  </si>
+  <si>
+    <t>89,39%</t>
+  </si>
+  <si>
+    <t>90,18%</t>
+  </si>
+  <si>
+    <t>Hogares según si tienen personas con alguna limitación (física, sensorial o psíquica) en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>93,35%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>94,28%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
   </si>
   <si>
     <t>0,17%</t>
   </si>
   <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
   </si>
   <si>
     <t>0,33%</t>
   </si>
   <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>86,6%</t>
-  </si>
-  <si>
-    <t>83,34%</t>
-  </si>
-  <si>
-    <t>89,16%</t>
-  </si>
-  <si>
-    <t>85,95%</t>
-  </si>
-  <si>
-    <t>83,01%</t>
-  </si>
-  <si>
-    <t>88,39%</t>
-  </si>
-  <si>
-    <t>86,23%</t>
-  </si>
-  <si>
-    <t>84,22%</t>
-  </si>
-  <si>
-    <t>88,18%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
-  </si>
-  <si>
-    <t>90,82%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>91,81%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Hogares según si tienen personas con alguna limitación en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>93,28%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>94,25%</t>
-  </si>
-  <si>
-    <t>91,85%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
-  </si>
-  <si>
-    <t>93,2%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>91,18%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>92,21%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>92,63%</t>
-  </si>
-  <si>
-    <t>90,41%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>90,27%</t>
-  </si>
-  <si>
-    <t>87,71%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>89,83%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>90,34%</t>
-  </si>
-  <si>
-    <t>87,6%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>87,41%</t>
-  </si>
-  <si>
-    <t>84,34%</t>
-  </si>
-  <si>
-    <t>89,9%</t>
-  </si>
-  <si>
-    <t>88,87%</t>
-  </si>
-  <si>
-    <t>86,63%</t>
-  </si>
-  <si>
-    <t>90,67%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>83,08%</t>
-  </si>
-  <si>
-    <t>89,69%</t>
-  </si>
-  <si>
-    <t>85,53%</t>
-  </si>
-  <si>
-    <t>81,86%</t>
-  </si>
-  <si>
-    <t>88,67%</t>
-  </si>
-  <si>
-    <t>86,07%</t>
-  </si>
-  <si>
-    <t>83,61%</t>
-  </si>
-  <si>
-    <t>88,38%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>82,21%</t>
-  </si>
-  <si>
-    <t>78,29%</t>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>89,68%</t>
+  </si>
+  <si>
+    <t>87,04%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>89,37%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>88,76%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>89,1%</t>
+  </si>
+  <si>
+    <t>85,33%</t>
+  </si>
+  <si>
+    <t>84,86%</t>
+  </si>
+  <si>
+    <t>81,41%</t>
+  </si>
+  <si>
+    <t>87,85%</t>
+  </si>
+  <si>
+    <t>86,94%</t>
+  </si>
+  <si>
+    <t>84,3%</t>
+  </si>
+  <si>
+    <t>89,22%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>90,35%</t>
+  </si>
+  <si>
+    <t>86,89%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>87,87%</t>
+  </si>
+  <si>
+    <t>84,08%</t>
+  </si>
+  <si>
+    <t>91,14%</t>
+  </si>
+  <si>
+    <t>89,03%</t>
+  </si>
+  <si>
+    <t>86,21%</t>
+  </si>
+  <si>
+    <t>91,03%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>91,13%</t>
+  </si>
+  <si>
+    <t>87,07%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>82,74%</t>
+  </si>
+  <si>
+    <t>78,03%</t>
+  </si>
+  <si>
+    <t>86,91%</t>
+  </si>
+  <si>
+    <t>86,02%</t>
+  </si>
+  <si>
+    <t>82,94%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>91,11%</t>
+  </si>
+  <si>
+    <t>90,2%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>91,79%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>Hogares según si tienen personas con alguna limitación (física, sensorial o psíquica) en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>87,5%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>90,81%</t>
+  </si>
+  <si>
+    <t>85,48%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>88,8%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>87,66%</t>
+  </si>
+  <si>
+    <t>82,65%</t>
+  </si>
+  <si>
+    <t>91,45%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>90,94%</t>
+  </si>
+  <si>
+    <t>88,1%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>91,22%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>91,86%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>91,17%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>89,21%</t>
+  </si>
+  <si>
+    <t>84,33%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>87,22%</t>
+  </si>
+  <si>
+    <t>85,15%</t>
+  </si>
+  <si>
+    <t>89,48%</t>
+  </si>
+  <si>
+    <t>88,32%</t>
   </si>
   <si>
     <t>85,54%</t>
   </si>
   <si>
-    <t>81,61%</t>
-  </si>
-  <si>
-    <t>78,5%</t>
-  </si>
-  <si>
-    <t>84,5%</t>
-  </si>
-  <si>
-    <t>81,87%</t>
-  </si>
-  <si>
-    <t>79,69%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>90,38%</t>
-  </si>
-  <si>
-    <t>89,26%</t>
-  </si>
-  <si>
-    <t>91,41%</t>
-  </si>
-  <si>
-    <t>88,43%</t>
-  </si>
-  <si>
-    <t>87,33%</t>
-  </si>
-  <si>
-    <t>89,55%</t>
-  </si>
-  <si>
-    <t>89,39%</t>
-  </si>
-  <si>
-    <t>90,18%</t>
-  </si>
-  <si>
-    <t>Hogares según si tienen personas con alguna limitación en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>93,35%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>89,68%</t>
-  </si>
-  <si>
-    <t>87,04%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
-  </si>
-  <si>
-    <t>89,37%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>88,76%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>89,1%</t>
-  </si>
-  <si>
-    <t>85,33%</t>
-  </si>
-  <si>
-    <t>84,86%</t>
-  </si>
-  <si>
-    <t>81,41%</t>
-  </si>
-  <si>
-    <t>87,85%</t>
-  </si>
-  <si>
-    <t>86,94%</t>
-  </si>
-  <si>
-    <t>84,3%</t>
-  </si>
-  <si>
-    <t>89,22%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>88,22%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>85,23%</t>
-  </si>
-  <si>
-    <t>82,11%</t>
-  </si>
-  <si>
-    <t>87,81%</t>
-  </si>
-  <si>
-    <t>87,59%</t>
-  </si>
-  <si>
-    <t>85,51%</t>
-  </si>
-  <si>
-    <t>89,45%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>91,11%</t>
-  </si>
-  <si>
-    <t>90,2%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>91,79%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>Hogares según si tienen personas con alguna limitación en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>92,36%</t>
-  </si>
-  <si>
-    <t>86,97%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>90,86%</t>
-  </si>
-  <si>
-    <t>85,63%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>88,72%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>87,95%</t>
-  </si>
-  <si>
-    <t>83,03%</t>
-  </si>
-  <si>
-    <t>91,49%</t>
-  </si>
-  <si>
-    <t>93,05%</t>
-  </si>
-  <si>
-    <t>90,44%</t>
-  </si>
-  <si>
-    <t>88,1%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>91,35%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>91,55%</t>
-  </si>
-  <si>
-    <t>89,33%</t>
-  </si>
-  <si>
-    <t>93,5%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>86,14%</t>
-  </si>
-  <si>
-    <t>83,14%</t>
-  </si>
-  <si>
-    <t>89,63%</t>
-  </si>
-  <si>
-    <t>86,89%</t>
-  </si>
-  <si>
-    <t>84,91%</t>
-  </si>
-  <si>
-    <t>88,81%</t>
-  </si>
-  <si>
-    <t>86,52%</t>
-  </si>
-  <si>
-    <t>84,66%</t>
+    <t>93,18%</t>
   </si>
   <si>
     <t>0,57%</t>
   </si>
   <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>81,0%</t>
-  </si>
-  <si>
-    <t>77,67%</t>
-  </si>
-  <si>
-    <t>84,03%</t>
-  </si>
-  <si>
-    <t>86,85%</t>
-  </si>
-  <si>
-    <t>84,57%</t>
-  </si>
-  <si>
-    <t>88,91%</t>
-  </si>
-  <si>
-    <t>83,91%</t>
-  </si>
-  <si>
-    <t>81,93%</t>
-  </si>
-  <si>
-    <t>85,84%</t>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>80,75%</t>
+  </si>
+  <si>
+    <t>77,38%</t>
+  </si>
+  <si>
+    <t>83,84%</t>
+  </si>
+  <si>
+    <t>86,8%</t>
+  </si>
+  <si>
+    <t>83,74%</t>
+  </si>
+  <si>
+    <t>81,76%</t>
+  </si>
+  <si>
+    <t>85,68%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
   </si>
   <si>
     <t>0,44%</t>
   </si>
   <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>34,88%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>52,28%</t>
-  </si>
-  <si>
-    <t>29,57%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>44,29%</t>
-  </si>
-  <si>
-    <t>77,8%</t>
-  </si>
-  <si>
-    <t>74,86%</t>
-  </si>
-  <si>
-    <t>80,48%</t>
-  </si>
-  <si>
-    <t>64,91%</t>
-  </si>
-  <si>
-    <t>47,53%</t>
-  </si>
-  <si>
-    <t>73,4%</t>
-  </si>
-  <si>
-    <t>70,12%</t>
-  </si>
-  <si>
-    <t>55,31%</t>
-  </si>
-  <si>
-    <t>75,35%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>85,68%</t>
-  </si>
-  <si>
-    <t>84,41%</t>
-  </si>
-  <si>
-    <t>87,03%</t>
-  </si>
-  <si>
-    <t>82,91%</t>
-  </si>
-  <si>
-    <t>74,14%</t>
-  </si>
-  <si>
-    <t>84,21%</t>
-  </si>
-  <si>
-    <t>79,44%</t>
-  </si>
-  <si>
-    <t>85,81%</t>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>45,43%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>79,59%</t>
+  </si>
+  <si>
+    <t>34,58%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>69,41%</t>
+  </si>
+  <si>
+    <t>82,98%</t>
+  </si>
+  <si>
+    <t>79,52%</t>
+  </si>
+  <si>
+    <t>85,89%</t>
+  </si>
+  <si>
+    <t>54,45%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>83,15%</t>
+  </si>
+  <si>
+    <t>65,21%</t>
+  </si>
+  <si>
+    <t>30,48%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>28,63%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>32,53%</t>
+  </si>
+  <si>
+    <t>35,69%</t>
+  </si>
+  <si>
+    <t>32,64%</t>
+  </si>
+  <si>
+    <t>39,17%</t>
+  </si>
+  <si>
+    <t>32,87%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>35,36%</t>
+  </si>
+  <si>
+    <t>70,85%</t>
+  </si>
+  <si>
+    <t>66,91%</t>
+  </si>
+  <si>
+    <t>75,27%</t>
+  </si>
+  <si>
+    <t>64,02%</t>
+  </si>
+  <si>
+    <t>60,54%</t>
+  </si>
+  <si>
+    <t>67,08%</t>
+  </si>
+  <si>
+    <t>66,75%</t>
+  </si>
+  <si>
+    <t>64,29%</t>
+  </si>
+  <si>
+    <t>69,52%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>33,17%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>86,56%</t>
+  </si>
+  <si>
+    <t>84,93%</t>
+  </si>
+  <si>
+    <t>89,54%</t>
+  </si>
+  <si>
+    <t>81,06%</t>
+  </si>
+  <si>
+    <t>66,56%</t>
+  </si>
+  <si>
+    <t>86,13%</t>
+  </si>
+  <si>
+    <t>83,71%</t>
+  </si>
+  <si>
+    <t>76,11%</t>
+  </si>
+  <si>
+    <t>86,61%</t>
   </si>
 </sst>
 </file>
@@ -2247,8 +2463,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B9C406F-1F56-4853-AA42-98CF0BB2D144}">
-  <dimension ref="A1:Q32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E3F3A9A-E1D8-4078-9DC6-D0A2CC859C61}">
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3422,7 +3638,7 @@
         <v>14</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>138</v>
+        <v>88</v>
       </c>
       <c r="M24" s="7">
         <v>1</v>
@@ -3431,13 +3647,13 @@
         <v>836</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3446,49 +3662,49 @@
         <v>18</v>
       </c>
       <c r="C25" s="7">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="D25" s="7">
-        <v>66482</v>
+        <v>34164</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="H25" s="7">
+        <v>41</v>
+      </c>
+      <c r="I25" s="7">
+        <v>37978</v>
+      </c>
+      <c r="J25" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="H25" s="7">
-        <v>91</v>
-      </c>
-      <c r="I25" s="7">
-        <v>95103</v>
-      </c>
-      <c r="J25" s="7" t="s">
+      <c r="K25" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="L25" s="7" t="s">
+      <c r="M25" s="7">
+        <v>77</v>
+      </c>
+      <c r="N25" s="7">
+        <v>72142</v>
+      </c>
+      <c r="O25" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="M25" s="7">
-        <v>161</v>
-      </c>
-      <c r="N25" s="7">
-        <v>161585</v>
-      </c>
-      <c r="O25" s="7" t="s">
+      <c r="P25" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3497,49 +3713,49 @@
         <v>27</v>
       </c>
       <c r="C26" s="7">
-        <v>452</v>
+        <v>266</v>
       </c>
       <c r="D26" s="7">
-        <v>435148</v>
+        <v>257584</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="H26" s="7">
+        <v>330</v>
+      </c>
+      <c r="I26" s="7">
+        <v>304956</v>
+      </c>
+      <c r="J26" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="H26" s="7">
-        <v>570</v>
-      </c>
-      <c r="I26" s="7">
-        <v>581739</v>
-      </c>
-      <c r="J26" s="7" t="s">
+      <c r="K26" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="L26" s="7" t="s">
+      <c r="M26" s="7">
+        <v>596</v>
+      </c>
+      <c r="N26" s="7">
+        <v>562539</v>
+      </c>
+      <c r="O26" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="M26" s="7">
-        <v>1022</v>
-      </c>
-      <c r="N26" s="7">
-        <v>1016887</v>
-      </c>
-      <c r="O26" s="7" t="s">
+      <c r="P26" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3548,10 +3764,10 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>523</v>
+        <v>303</v>
       </c>
       <c r="D27" s="7">
-        <v>502466</v>
+        <v>292583</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>37</v>
@@ -3563,10 +3779,10 @@
         <v>37</v>
       </c>
       <c r="H27" s="7">
-        <v>661</v>
+        <v>371</v>
       </c>
       <c r="I27" s="7">
-        <v>676842</v>
+        <v>342934</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>37</v>
@@ -3578,10 +3794,10 @@
         <v>37</v>
       </c>
       <c r="M27" s="7">
-        <v>1184</v>
+        <v>674</v>
       </c>
       <c r="N27" s="7">
-        <v>1179308</v>
+        <v>635517</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>37</v>
@@ -3595,55 +3811,55 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>157</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D28" s="7">
-        <v>9277</v>
+        <v>0</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="F28" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>116</v>
-      </c>
       <c r="H28" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I28" s="7">
-        <v>4276</v>
+        <v>0</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="K28" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="M28" s="7">
+        <v>0</v>
+      </c>
+      <c r="N28" s="7">
+        <v>0</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="M28" s="7">
-        <v>13</v>
-      </c>
-      <c r="N28" s="7">
-        <v>13553</v>
-      </c>
-      <c r="O28" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3652,49 +3868,49 @@
         <v>18</v>
       </c>
       <c r="C29" s="7">
-        <v>215</v>
+        <v>34</v>
       </c>
       <c r="D29" s="7">
-        <v>217659</v>
+        <v>32319</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="G29" s="7" t="s">
+      <c r="H29" s="7">
+        <v>50</v>
+      </c>
+      <c r="I29" s="7">
+        <v>57125</v>
+      </c>
+      <c r="J29" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="H29" s="7">
-        <v>258</v>
-      </c>
-      <c r="I29" s="7">
-        <v>271430</v>
-      </c>
-      <c r="J29" s="7" t="s">
+      <c r="K29" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="L29" s="7" t="s">
+      <c r="M29" s="7">
+        <v>84</v>
+      </c>
+      <c r="N29" s="7">
+        <v>89443</v>
+      </c>
+      <c r="O29" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="M29" s="7">
-        <v>473</v>
-      </c>
-      <c r="N29" s="7">
-        <v>489089</v>
-      </c>
-      <c r="O29" s="7" t="s">
+      <c r="P29" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3703,49 +3919,49 @@
         <v>27</v>
       </c>
       <c r="C30" s="7">
-        <v>2990</v>
+        <v>186</v>
       </c>
       <c r="D30" s="7">
-        <v>3049608</v>
+        <v>177564</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="G30" s="7" t="s">
+      <c r="H30" s="7">
+        <v>240</v>
+      </c>
+      <c r="I30" s="7">
+        <v>276783</v>
+      </c>
+      <c r="J30" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="H30" s="7">
-        <v>3035</v>
-      </c>
-      <c r="I30" s="7">
-        <v>3103492</v>
-      </c>
-      <c r="J30" s="7" t="s">
+      <c r="K30" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="L30" s="7" t="s">
+      <c r="M30" s="7">
+        <v>426</v>
+      </c>
+      <c r="N30" s="7">
+        <v>454348</v>
+      </c>
+      <c r="O30" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="M30" s="7">
-        <v>6025</v>
-      </c>
-      <c r="N30" s="7">
-        <v>6153098</v>
-      </c>
-      <c r="O30" s="7" t="s">
+      <c r="P30" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3754,63 +3970,270 @@
         <v>3</v>
       </c>
       <c r="C31" s="7">
+        <v>220</v>
+      </c>
+      <c r="D31" s="7">
+        <v>209883</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H31" s="7">
+        <v>290</v>
+      </c>
+      <c r="I31" s="7">
+        <v>333908</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="M31" s="7">
+        <v>510</v>
+      </c>
+      <c r="N31" s="7">
+        <v>543791</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="7">
+        <v>9</v>
+      </c>
+      <c r="D32" s="7">
+        <v>9277</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="H32" s="7">
+        <v>4</v>
+      </c>
+      <c r="I32" s="7">
+        <v>4276</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="M32" s="7">
+        <v>13</v>
+      </c>
+      <c r="N32" s="7">
+        <v>13553</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C33" s="7">
+        <v>215</v>
+      </c>
+      <c r="D33" s="7">
+        <v>217659</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="H33" s="7">
+        <v>258</v>
+      </c>
+      <c r="I33" s="7">
+        <v>271430</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="M33" s="7">
+        <v>473</v>
+      </c>
+      <c r="N33" s="7">
+        <v>489089</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C34" s="7">
+        <v>2990</v>
+      </c>
+      <c r="D34" s="7">
+        <v>3049607</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="H34" s="7">
+        <v>3035</v>
+      </c>
+      <c r="I34" s="7">
+        <v>3103491</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="M34" s="7">
+        <v>6025</v>
+      </c>
+      <c r="N34" s="7">
+        <v>6153099</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="7">
         <v>3214</v>
       </c>
-      <c r="D31" s="7">
-        <v>3276544</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="H31" s="7">
+      <c r="D35" s="7">
+        <v>3276543</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H35" s="7">
         <v>3297</v>
       </c>
-      <c r="I31" s="7">
-        <v>3379198</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="M31" s="7">
+      <c r="I35" s="7">
+        <v>3379197</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="M35" s="7">
         <v>6511</v>
       </c>
-      <c r="N31" s="7">
-        <v>6655740</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>179</v>
+      <c r="N35" s="7">
+        <v>6655741</v>
+      </c>
+      <c r="O35" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>199</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3823,8 +4246,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FD2999A-D180-487A-9831-6243F0FD7F18}">
-  <dimension ref="A1:Q32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E55DE622-003F-4BFF-8279-DA6BF7A0D8E1}">
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3840,7 +4263,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3947,13 +4370,13 @@
         <v>1049</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3968,7 +4391,7 @@
         <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>183</v>
+        <v>203</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -3983,7 +4406,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>184</v>
+        <v>204</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4001,10 +4424,10 @@
         <v>26</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>185</v>
+        <v>205</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>186</v>
+        <v>206</v>
       </c>
       <c r="H5" s="7">
         <v>25</v>
@@ -4013,13 +4436,13 @@
         <v>24735</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>189</v>
+        <v>209</v>
       </c>
       <c r="M5" s="7">
         <v>44</v>
@@ -4028,13 +4451,13 @@
         <v>44209</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>191</v>
+        <v>211</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4049,13 +4472,13 @@
         <v>433624</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>192</v>
+        <v>212</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>193</v>
+        <v>213</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="H6" s="7">
         <v>396</v>
@@ -4064,13 +4487,13 @@
         <v>405495</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="M6" s="7">
         <v>822</v>
@@ -4079,13 +4502,13 @@
         <v>839119</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>199</v>
+        <v>219</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>200</v>
+        <v>220</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4159,7 +4582,7 @@
         <v>14</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -4168,13 +4591,13 @@
         <v>947</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>201</v>
+        <v>221</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>202</v>
+        <v>222</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -4189,7 +4612,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>160</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4204,13 +4627,13 @@
         <v>42409</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>204</v>
+        <v>224</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>205</v>
+        <v>225</v>
       </c>
       <c r="H9" s="7">
         <v>33</v>
@@ -4219,13 +4642,13 @@
         <v>37829</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>206</v>
+        <v>226</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>207</v>
+        <v>227</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="M9" s="7">
         <v>74</v>
@@ -4234,13 +4657,13 @@
         <v>80238</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4255,13 +4678,13 @@
         <v>644678</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>214</v>
+        <v>234</v>
       </c>
       <c r="H10" s="7">
         <v>537</v>
@@ -4270,10 +4693,10 @@
         <v>571479</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>35</v>
@@ -4285,13 +4708,13 @@
         <v>1216157</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>218</v>
+        <v>238</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>219</v>
+        <v>239</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4365,7 +4788,7 @@
         <v>14</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H12" s="7">
         <v>1</v>
@@ -4395,7 +4818,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>220</v>
+        <v>240</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4410,13 +4833,13 @@
         <v>50230</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>221</v>
+        <v>241</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>222</v>
+        <v>242</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>223</v>
+        <v>243</v>
       </c>
       <c r="H13" s="7">
         <v>63</v>
@@ -4425,13 +4848,13 @@
         <v>68209</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>224</v>
+        <v>244</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>225</v>
+        <v>245</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>226</v>
+        <v>246</v>
       </c>
       <c r="M13" s="7">
         <v>108</v>
@@ -4440,13 +4863,13 @@
         <v>118439</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>227</v>
+        <v>247</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>228</v>
+        <v>248</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>229</v>
+        <v>249</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4461,13 +4884,13 @@
         <v>631633</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>231</v>
+        <v>251</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>232</v>
+        <v>252</v>
       </c>
       <c r="H14" s="7">
         <v>603</v>
@@ -4476,13 +4899,13 @@
         <v>641694</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>233</v>
+        <v>253</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>234</v>
+        <v>254</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>235</v>
+        <v>255</v>
       </c>
       <c r="M14" s="7">
         <v>1209</v>
@@ -4491,13 +4914,13 @@
         <v>1273326</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>236</v>
+        <v>256</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>237</v>
+        <v>257</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>238</v>
+        <v>258</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4565,13 +4988,13 @@
         <v>986</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>201</v>
+        <v>221</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>239</v>
+        <v>259</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4586,7 +5009,7 @@
         <v>14</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -4595,7 +5018,7 @@
         <v>986</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>12</v>
@@ -4616,13 +5039,13 @@
         <v>58369</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>241</v>
+        <v>261</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>71</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>242</v>
+        <v>262</v>
       </c>
       <c r="H17" s="7">
         <v>67</v>
@@ -4631,13 +5054,13 @@
         <v>77598</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>243</v>
+        <v>263</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>244</v>
+        <v>264</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>245</v>
+        <v>265</v>
       </c>
       <c r="M17" s="7">
         <v>119</v>
@@ -4646,13 +5069,13 @@
         <v>135967</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>246</v>
+        <v>266</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>247</v>
+        <v>267</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>248</v>
+        <v>268</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4667,13 +5090,13 @@
         <v>555262</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>249</v>
+        <v>269</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>251</v>
+        <v>271</v>
       </c>
       <c r="H18" s="7">
         <v>472</v>
@@ -4682,13 +5105,13 @@
         <v>538601</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>253</v>
+        <v>273</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>254</v>
+        <v>274</v>
       </c>
       <c r="M18" s="7">
         <v>967</v>
@@ -4697,13 +5120,13 @@
         <v>1093863</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>256</v>
+        <v>276</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>257</v>
+        <v>277</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4771,13 +5194,13 @@
         <v>1132</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>258</v>
+        <v>278</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>259</v>
+        <v>279</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -4792,7 +5215,7 @@
         <v>14</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>260</v>
+        <v>280</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -4807,7 +5230,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>261</v>
+        <v>281</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4822,13 +5245,13 @@
         <v>56291</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>262</v>
+        <v>282</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>263</v>
+        <v>283</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="H21" s="7">
         <v>59</v>
@@ -4837,13 +5260,13 @@
         <v>64807</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>265</v>
+        <v>285</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>267</v>
+        <v>287</v>
       </c>
       <c r="M21" s="7">
         <v>113</v>
@@ -4852,13 +5275,13 @@
         <v>121098</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>268</v>
+        <v>288</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>269</v>
+        <v>289</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>270</v>
+        <v>290</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4873,13 +5296,13 @@
         <v>372006</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>256</v>
+        <v>276</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>271</v>
+        <v>291</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>272</v>
+        <v>292</v>
       </c>
       <c r="H22" s="7">
         <v>347</v>
@@ -4888,13 +5311,13 @@
         <v>382993</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>274</v>
+        <v>294</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>275</v>
+        <v>295</v>
       </c>
       <c r="M22" s="7">
         <v>685</v>
@@ -4903,13 +5326,13 @@
         <v>754999</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>276</v>
+        <v>296</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>277</v>
+        <v>297</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>278</v>
+        <v>298</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4983,7 +5406,7 @@
         <v>14</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -4998,7 +5421,7 @@
         <v>14</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>158</v>
+        <v>300</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -5013,7 +5436,7 @@
         <v>14</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>201</v>
+        <v>301</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5022,49 +5445,49 @@
         <v>18</v>
       </c>
       <c r="C25" s="7">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="D25" s="7">
-        <v>99549</v>
+        <v>48186</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>280</v>
+        <v>302</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>281</v>
+        <v>303</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>282</v>
+        <v>304</v>
       </c>
       <c r="H25" s="7">
-        <v>126</v>
+        <v>46</v>
       </c>
       <c r="I25" s="7">
-        <v>136602</v>
+        <v>48919</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>283</v>
+        <v>305</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>284</v>
+        <v>306</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>285</v>
+        <v>307</v>
       </c>
       <c r="M25" s="7">
-        <v>209</v>
+        <v>87</v>
       </c>
       <c r="N25" s="7">
-        <v>236151</v>
+        <v>97105</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>286</v>
+        <v>308</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>287</v>
+        <v>309</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>288</v>
+        <v>310</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5073,49 +5496,49 @@
         <v>27</v>
       </c>
       <c r="C26" s="7">
-        <v>421</v>
+        <v>241</v>
       </c>
       <c r="D26" s="7">
-        <v>460088</v>
+        <v>261600</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>289</v>
+        <v>311</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>290</v>
+        <v>312</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>291</v>
+        <v>313</v>
       </c>
       <c r="H26" s="7">
-        <v>568</v>
+        <v>298</v>
       </c>
       <c r="I26" s="7">
-        <v>606373</v>
+        <v>305077</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>292</v>
+        <v>314</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>293</v>
+        <v>315</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>294</v>
+        <v>316</v>
       </c>
       <c r="M26" s="7">
-        <v>989</v>
+        <v>539</v>
       </c>
       <c r="N26" s="7">
-        <v>1066461</v>
+        <v>566677</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>295</v>
+        <v>317</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>296</v>
+        <v>318</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>156</v>
+        <v>319</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5124,10 +5547,10 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>504</v>
+        <v>282</v>
       </c>
       <c r="D27" s="7">
-        <v>559637</v>
+        <v>309786</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>37</v>
@@ -5139,10 +5562,10 @@
         <v>37</v>
       </c>
       <c r="H27" s="7">
-        <v>694</v>
+        <v>344</v>
       </c>
       <c r="I27" s="7">
-        <v>742975</v>
+        <v>353996</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>37</v>
@@ -5154,10 +5577,10 @@
         <v>37</v>
       </c>
       <c r="M27" s="7">
-        <v>1198</v>
+        <v>626</v>
       </c>
       <c r="N27" s="7">
-        <v>1302612</v>
+        <v>663782</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>37</v>
@@ -5171,55 +5594,55 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>157</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D28" s="7">
-        <v>3166</v>
+        <v>0</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>297</v>
+        <v>12</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>159</v>
+        <v>14</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>158</v>
+        <v>320</v>
       </c>
       <c r="H28" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" s="7">
-        <v>1895</v>
+        <v>0</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>298</v>
+        <v>12</v>
       </c>
       <c r="K28" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="M28" s="7">
+        <v>0</v>
+      </c>
+      <c r="N28" s="7">
+        <v>0</v>
+      </c>
+      <c r="O28" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="L28" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="M28" s="7">
-        <v>5</v>
-      </c>
-      <c r="N28" s="7">
-        <v>5061</v>
-      </c>
-      <c r="O28" s="7" t="s">
-        <v>44</v>
-      </c>
       <c r="P28" s="7" t="s">
-        <v>159</v>
+        <v>14</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>201</v>
+        <v>240</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5228,49 +5651,49 @@
         <v>18</v>
       </c>
       <c r="C29" s="7">
-        <v>294</v>
+        <v>42</v>
       </c>
       <c r="D29" s="7">
-        <v>326322</v>
+        <v>51363</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>300</v>
+        <v>321</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>227</v>
+        <v>322</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>301</v>
+        <v>323</v>
       </c>
       <c r="H29" s="7">
-        <v>373</v>
+        <v>80</v>
       </c>
       <c r="I29" s="7">
-        <v>409780</v>
+        <v>87683</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>302</v>
+        <v>324</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>303</v>
+        <v>325</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>304</v>
+        <v>326</v>
       </c>
       <c r="M29" s="7">
-        <v>667</v>
+        <v>122</v>
       </c>
       <c r="N29" s="7">
-        <v>736101</v>
+        <v>139046</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>305</v>
+        <v>327</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>306</v>
+        <v>328</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>307</v>
+        <v>329</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5279,49 +5702,49 @@
         <v>27</v>
       </c>
       <c r="C30" s="7">
-        <v>2912</v>
+        <v>180</v>
       </c>
       <c r="D30" s="7">
-        <v>3097291</v>
+        <v>198488</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>308</v>
+        <v>330</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>309</v>
+        <v>331</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>310</v>
+        <v>332</v>
       </c>
       <c r="H30" s="7">
-        <v>2923</v>
+        <v>270</v>
       </c>
       <c r="I30" s="7">
-        <v>3146635</v>
+        <v>301296</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>311</v>
+        <v>333</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>312</v>
+        <v>334</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>313</v>
+        <v>335</v>
       </c>
       <c r="M30" s="7">
-        <v>5835</v>
+        <v>450</v>
       </c>
       <c r="N30" s="7">
-        <v>6243926</v>
+        <v>499784</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>314</v>
+        <v>336</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>275</v>
+        <v>337</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>315</v>
+        <v>338</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5330,63 +5753,270 @@
         <v>3</v>
       </c>
       <c r="C31" s="7">
+        <v>222</v>
+      </c>
+      <c r="D31" s="7">
+        <v>249851</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H31" s="7">
+        <v>350</v>
+      </c>
+      <c r="I31" s="7">
+        <v>388979</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="M31" s="7">
+        <v>572</v>
+      </c>
+      <c r="N31" s="7">
+        <v>638830</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="7">
+        <v>3</v>
+      </c>
+      <c r="D32" s="7">
+        <v>3166</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="H32" s="7">
+        <v>2</v>
+      </c>
+      <c r="I32" s="7">
+        <v>1895</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="M32" s="7">
+        <v>5</v>
+      </c>
+      <c r="N32" s="7">
+        <v>5061</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C33" s="7">
+        <v>294</v>
+      </c>
+      <c r="D33" s="7">
+        <v>326322</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="H33" s="7">
+        <v>373</v>
+      </c>
+      <c r="I33" s="7">
+        <v>409780</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="M33" s="7">
+        <v>667</v>
+      </c>
+      <c r="N33" s="7">
+        <v>736101</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C34" s="7">
+        <v>2912</v>
+      </c>
+      <c r="D34" s="7">
+        <v>3097291</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="H34" s="7">
+        <v>2923</v>
+      </c>
+      <c r="I34" s="7">
+        <v>3146635</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="M34" s="7">
+        <v>5835</v>
+      </c>
+      <c r="N34" s="7">
+        <v>6243926</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="7">
         <v>3209</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D35" s="7">
         <v>3426779</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="H31" s="7">
+      <c r="E35" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H35" s="7">
         <v>3298</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I35" s="7">
         <v>3558309</v>
       </c>
-      <c r="J31" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="M31" s="7">
+      <c r="J35" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="M35" s="7">
         <v>6507</v>
       </c>
-      <c r="N31" s="7">
+      <c r="N35" s="7">
         <v>6985088</v>
       </c>
-      <c r="O31" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>179</v>
+      <c r="O35" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>199</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5399,8 +6029,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4417EF5-BE70-40B7-ABD4-CB1D5B707C75}">
-  <dimension ref="A1:Q32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41DD56D6-71DE-433A-99A5-2F957E5B095B}">
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5416,7 +6046,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>316</v>
+        <v>358</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5523,13 +6153,13 @@
         <v>3991</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>317</v>
+        <v>359</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>318</v>
+        <v>360</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>319</v>
+        <v>361</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -5544,7 +6174,7 @@
         <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>260</v>
+        <v>280</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
@@ -5553,13 +6183,13 @@
         <v>3991</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>320</v>
+        <v>362</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>40</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>321</v>
+        <v>363</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5574,13 +6204,13 @@
         <v>16344</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>322</v>
+        <v>364</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>323</v>
+        <v>365</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>324</v>
+        <v>366</v>
       </c>
       <c r="H5" s="7">
         <v>11</v>
@@ -5589,13 +6219,13 @@
         <v>10409</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>325</v>
+        <v>367</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>326</v>
+        <v>368</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>327</v>
+        <v>369</v>
       </c>
       <c r="M5" s="7">
         <v>26</v>
@@ -5607,7 +6237,7 @@
         <v>52</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>328</v>
+        <v>370</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>73</v>
@@ -5625,13 +6255,13 @@
         <v>399128</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>329</v>
+        <v>371</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>330</v>
+        <v>372</v>
       </c>
       <c r="H6" s="7">
         <v>393</v>
@@ -5640,13 +6270,13 @@
         <v>385346</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>331</v>
+        <v>373</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>332</v>
+        <v>374</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>333</v>
+        <v>375</v>
       </c>
       <c r="M6" s="7">
         <v>768</v>
@@ -5655,13 +6285,13 @@
         <v>784474</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>334</v>
+        <v>376</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>335</v>
+        <v>377</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>336</v>
+        <v>378</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5744,13 +6374,13 @@
         <v>2881</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>337</v>
+        <v>379</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>201</v>
+        <v>221</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>338</v>
+        <v>380</v>
       </c>
       <c r="M8" s="7">
         <v>10</v>
@@ -5759,13 +6389,13 @@
         <v>10069</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>339</v>
+        <v>158</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>90</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>340</v>
+        <v>381</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5780,13 +6410,13 @@
         <v>21847</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>341</v>
+        <v>382</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>342</v>
+        <v>383</v>
       </c>
       <c r="H9" s="7">
         <v>21</v>
@@ -5795,13 +6425,13 @@
         <v>20272</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>343</v>
+        <v>384</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>344</v>
+        <v>385</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>345</v>
+        <v>386</v>
       </c>
       <c r="M9" s="7">
         <v>43</v>
@@ -5810,13 +6440,13 @@
         <v>42118</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>346</v>
+        <v>387</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>347</v>
+        <v>388</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>348</v>
+        <v>389</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5831,13 +6461,13 @@
         <v>561461</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>349</v>
+        <v>390</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>350</v>
+        <v>391</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>351</v>
+        <v>392</v>
       </c>
       <c r="H10" s="7">
         <v>555</v>
@@ -5846,13 +6476,13 @@
         <v>540392</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>352</v>
+        <v>393</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>353</v>
+        <v>394</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>354</v>
+        <v>395</v>
       </c>
       <c r="M10" s="7">
         <v>1093</v>
@@ -5861,13 +6491,13 @@
         <v>1101853</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>192</v>
+        <v>212</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>355</v>
+        <v>396</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>356</v>
+        <v>397</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5935,13 +6565,13 @@
         <v>1072</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>201</v>
+        <v>221</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>357</v>
+        <v>398</v>
       </c>
       <c r="H12" s="7">
         <v>2</v>
@@ -5965,13 +6595,13 @@
         <v>3041</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>44</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>358</v>
+        <v>299</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5986,13 +6616,13 @@
         <v>30369</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>359</v>
+        <v>399</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>360</v>
+        <v>400</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>361</v>
+        <v>401</v>
       </c>
       <c r="H13" s="7">
         <v>38</v>
@@ -6001,13 +6631,13 @@
         <v>35855</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>362</v>
+        <v>402</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>363</v>
+        <v>403</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
       <c r="M13" s="7">
         <v>67</v>
@@ -6016,13 +6646,13 @@
         <v>66224</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>364</v>
+        <v>404</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>365</v>
+        <v>405</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>366</v>
+        <v>406</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6037,13 +6667,13 @@
         <v>637656</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>367</v>
+        <v>407</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>368</v>
+        <v>408</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>369</v>
+        <v>409</v>
       </c>
       <c r="H14" s="7">
         <v>625</v>
@@ -6052,13 +6682,13 @@
         <v>623561</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>370</v>
+        <v>410</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>371</v>
+        <v>411</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>372</v>
+        <v>412</v>
       </c>
       <c r="M14" s="7">
         <v>1233</v>
@@ -6067,13 +6697,13 @@
         <v>1261217</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>373</v>
+        <v>413</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>374</v>
+        <v>414</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>375</v>
+        <v>415</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6141,13 +6771,13 @@
         <v>3310</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>337</v>
+        <v>379</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>136</v>
+        <v>416</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>376</v>
+        <v>417</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -6156,13 +6786,13 @@
         <v>1027</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>201</v>
+        <v>221</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>377</v>
+        <v>418</v>
       </c>
       <c r="M16" s="7">
         <v>4</v>
@@ -6171,13 +6801,13 @@
         <v>4337</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>139</v>
+        <v>419</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>378</v>
+        <v>420</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6192,10 +6822,10 @@
         <v>63393</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>379</v>
+        <v>421</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>117</v>
@@ -6207,13 +6837,13 @@
         <v>52664</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>381</v>
+        <v>423</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>382</v>
+        <v>424</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>383</v>
+        <v>425</v>
       </c>
       <c r="M17" s="7">
         <v>105</v>
@@ -6222,13 +6852,13 @@
         <v>116057</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>384</v>
+        <v>426</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>385</v>
+        <v>427</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>386</v>
+        <v>428</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6243,13 +6873,13 @@
         <v>579345</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>387</v>
+        <v>429</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>388</v>
+        <v>430</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>389</v>
+        <v>431</v>
       </c>
       <c r="H18" s="7">
         <v>551</v>
@@ -6258,13 +6888,13 @@
         <v>595385</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>390</v>
+        <v>432</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>391</v>
+        <v>433</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>392</v>
+        <v>434</v>
       </c>
       <c r="M18" s="7">
         <v>1075</v>
@@ -6273,13 +6903,13 @@
         <v>1174730</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>393</v>
+        <v>435</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>394</v>
+        <v>436</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>395</v>
+        <v>437</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6347,13 +6977,13 @@
         <v>1166</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>396</v>
+        <v>438</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>397</v>
+        <v>439</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -6362,7 +6992,7 @@
         <v>1169</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>396</v>
+        <v>438</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>12</v>
@@ -6377,13 +7007,13 @@
         <v>2334</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>396</v>
+        <v>438</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>398</v>
+        <v>440</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6398,13 +7028,13 @@
         <v>50942</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>399</v>
+        <v>441</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>400</v>
+        <v>442</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>401</v>
+        <v>443</v>
       </c>
       <c r="H21" s="7">
         <v>63</v>
@@ -6413,13 +7043,13 @@
         <v>74074</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>402</v>
+        <v>444</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>403</v>
+        <v>445</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>404</v>
+        <v>446</v>
       </c>
       <c r="M21" s="7">
         <v>107</v>
@@ -6428,13 +7058,13 @@
         <v>125016</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>405</v>
+        <v>447</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>301</v>
+        <v>343</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>406</v>
+        <v>448</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6449,13 +7079,13 @@
         <v>425810</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>407</v>
+        <v>449</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>408</v>
+        <v>450</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>177</v>
+        <v>197</v>
       </c>
       <c r="H22" s="7">
         <v>369</v>
@@ -6464,13 +7094,13 @@
         <v>421606</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>409</v>
+        <v>451</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>410</v>
+        <v>452</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>411</v>
+        <v>453</v>
       </c>
       <c r="M22" s="7">
         <v>748</v>
@@ -6479,13 +7109,13 @@
         <v>847417</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>412</v>
+        <v>454</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>413</v>
+        <v>455</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>414</v>
+        <v>456</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6559,7 +7189,7 @@
         <v>14</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>415</v>
+        <v>457</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -6574,7 +7204,7 @@
         <v>14</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>138</v>
+        <v>17</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -6589,7 +7219,7 @@
         <v>14</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>416</v>
+        <v>178</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6598,49 +7228,49 @@
         <v>18</v>
       </c>
       <c r="C25" s="7">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="D25" s="7">
-        <v>55047</v>
+        <v>32260</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>417</v>
+        <v>458</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>418</v>
+        <v>459</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>419</v>
+        <v>282</v>
       </c>
       <c r="H25" s="7">
-        <v>94</v>
+        <v>43</v>
       </c>
       <c r="I25" s="7">
-        <v>114888</v>
+        <v>45821</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>420</v>
+        <v>460</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>421</v>
+        <v>461</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>422</v>
+        <v>462</v>
       </c>
       <c r="M25" s="7">
-        <v>152</v>
+        <v>75</v>
       </c>
       <c r="N25" s="7">
-        <v>169935</v>
+        <v>78081</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>423</v>
+        <v>463</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>424</v>
+        <v>464</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>425</v>
+        <v>465</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6649,49 +7279,49 @@
         <v>27</v>
       </c>
       <c r="C26" s="7">
-        <v>569</v>
+        <v>293</v>
       </c>
       <c r="D26" s="7">
-        <v>536281</v>
+        <v>302070</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>110</v>
+        <v>466</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>426</v>
+        <v>467</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>427</v>
+        <v>468</v>
       </c>
       <c r="H26" s="7">
-        <v>561</v>
+        <v>311</v>
       </c>
       <c r="I26" s="7">
-        <v>663043</v>
+        <v>331941</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>428</v>
+        <v>469</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>429</v>
+        <v>470</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>430</v>
+        <v>471</v>
       </c>
       <c r="M26" s="7">
-        <v>1130</v>
+        <v>604</v>
       </c>
       <c r="N26" s="7">
-        <v>1199324</v>
+        <v>634011</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>431</v>
+        <v>472</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>432</v>
+        <v>473</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>433</v>
+        <v>474</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6700,10 +7330,10 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>627</v>
+        <v>325</v>
       </c>
       <c r="D27" s="7">
-        <v>591328</v>
+        <v>334330</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>37</v>
@@ -6715,10 +7345,10 @@
         <v>37</v>
       </c>
       <c r="H27" s="7">
-        <v>655</v>
+        <v>354</v>
       </c>
       <c r="I27" s="7">
-        <v>777931</v>
+        <v>377762</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>37</v>
@@ -6730,10 +7360,10 @@
         <v>37</v>
       </c>
       <c r="M27" s="7">
-        <v>1282</v>
+        <v>679</v>
       </c>
       <c r="N27" s="7">
-        <v>1369259</v>
+        <v>712092</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>37</v>
@@ -6747,55 +7377,55 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>157</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D28" s="7">
-        <v>16727</v>
+        <v>0</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>320</v>
+        <v>12</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>415</v>
+        <v>14</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>357</v>
+        <v>475</v>
       </c>
       <c r="H28" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I28" s="7">
-        <v>7046</v>
+        <v>0</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>297</v>
+        <v>14</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>434</v>
+        <v>476</v>
       </c>
       <c r="M28" s="7">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="N28" s="7">
-        <v>23773</v>
+        <v>0</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>220</v>
+        <v>12</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>435</v>
+        <v>14</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>337</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6804,49 +7434,49 @@
         <v>18</v>
       </c>
       <c r="C29" s="7">
-        <v>223</v>
+        <v>26</v>
       </c>
       <c r="D29" s="7">
-        <v>237941</v>
+        <v>22786</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>436</v>
+        <v>477</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>437</v>
+        <v>478</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>438</v>
+        <v>479</v>
       </c>
       <c r="H29" s="7">
-        <v>277</v>
+        <v>51</v>
       </c>
       <c r="I29" s="7">
-        <v>308163</v>
+        <v>69068</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>439</v>
+        <v>480</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>440</v>
+        <v>481</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>441</v>
+        <v>482</v>
       </c>
       <c r="M29" s="7">
-        <v>500</v>
+        <v>77</v>
       </c>
       <c r="N29" s="7">
-        <v>546104</v>
+        <v>91854</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>442</v>
+        <v>483</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>443</v>
+        <v>286</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>444</v>
+        <v>484</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6855,49 +7485,49 @@
         <v>27</v>
       </c>
       <c r="C30" s="7">
-        <v>2993</v>
+        <v>276</v>
       </c>
       <c r="D30" s="7">
-        <v>3139682</v>
+        <v>234212</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>445</v>
+        <v>485</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>446</v>
+        <v>486</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>447</v>
+        <v>487</v>
       </c>
       <c r="H30" s="7">
-        <v>3054</v>
+        <v>250</v>
       </c>
       <c r="I30" s="7">
-        <v>3229333</v>
+        <v>331101</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>448</v>
+        <v>488</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>449</v>
+        <v>489</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>450</v>
+        <v>490</v>
       </c>
       <c r="M30" s="7">
-        <v>6047</v>
+        <v>526</v>
       </c>
       <c r="N30" s="7">
-        <v>6369015</v>
+        <v>565313</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>451</v>
+        <v>491</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>452</v>
+        <v>492</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>453</v>
+        <v>295</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6906,63 +7536,270 @@
         <v>3</v>
       </c>
       <c r="C31" s="7">
+        <v>302</v>
+      </c>
+      <c r="D31" s="7">
+        <v>256998</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H31" s="7">
+        <v>301</v>
+      </c>
+      <c r="I31" s="7">
+        <v>400169</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="M31" s="7">
+        <v>603</v>
+      </c>
+      <c r="N31" s="7">
+        <v>657167</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="7">
+        <v>15</v>
+      </c>
+      <c r="D32" s="7">
+        <v>16727</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="H32" s="7">
+        <v>7</v>
+      </c>
+      <c r="I32" s="7">
+        <v>7046</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="M32" s="7">
+        <v>22</v>
+      </c>
+      <c r="N32" s="7">
+        <v>23773</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C33" s="7">
+        <v>223</v>
+      </c>
+      <c r="D33" s="7">
+        <v>237941</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="H33" s="7">
+        <v>277</v>
+      </c>
+      <c r="I33" s="7">
+        <v>308163</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="M33" s="7">
+        <v>500</v>
+      </c>
+      <c r="N33" s="7">
+        <v>546104</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C34" s="7">
+        <v>2993</v>
+      </c>
+      <c r="D34" s="7">
+        <v>3139682</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="H34" s="7">
+        <v>3054</v>
+      </c>
+      <c r="I34" s="7">
+        <v>3229333</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="M34" s="7">
+        <v>6047</v>
+      </c>
+      <c r="N34" s="7">
+        <v>6369015</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="7">
         <v>3231</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D35" s="7">
         <v>3394350</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="H31" s="7">
+      <c r="E35" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H35" s="7">
         <v>3338</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I35" s="7">
         <v>3544542</v>
       </c>
-      <c r="J31" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="M31" s="7">
+      <c r="J35" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="M35" s="7">
         <v>6569</v>
       </c>
-      <c r="N31" s="7">
+      <c r="N35" s="7">
         <v>6938892</v>
       </c>
-      <c r="O31" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>179</v>
+      <c r="O35" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>199</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -6975,8 +7812,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9290DD03-4E83-496B-98F9-62D2231055DD}">
-  <dimension ref="A1:Q32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD63CB7D-4E8D-4F2A-8EB6-60813E6C77AE}">
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -6992,7 +7829,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>454</v>
+        <v>513</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7096,16 +7933,16 @@
         <v>2</v>
       </c>
       <c r="D4" s="7">
-        <v>5977</v>
+        <v>5868</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>455</v>
+        <v>514</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>456</v>
+        <v>515</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -7120,22 +7957,22 @@
         <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>457</v>
+        <v>516</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
       </c>
       <c r="N4" s="7">
-        <v>5977</v>
+        <v>5868</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>458</v>
+        <v>517</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>459</v>
+        <v>518</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7147,46 +7984,46 @@
         <v>12</v>
       </c>
       <c r="D5" s="7">
-        <v>22876</v>
+        <v>23356</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>460</v>
+        <v>519</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>360</v>
+        <v>520</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>383</v>
+        <v>521</v>
       </c>
       <c r="H5" s="7">
         <v>20</v>
       </c>
       <c r="I5" s="7">
-        <v>32431</v>
+        <v>28788</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>461</v>
+        <v>522</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>462</v>
+        <v>523</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>463</v>
+        <v>524</v>
       </c>
       <c r="M5" s="7">
         <v>32</v>
       </c>
       <c r="N5" s="7">
-        <v>55306</v>
+        <v>52144</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>464</v>
+        <v>525</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>465</v>
+        <v>526</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>466</v>
+        <v>527</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7198,46 +8035,46 @@
         <v>158</v>
       </c>
       <c r="D6" s="7">
-        <v>348826</v>
+        <v>370763</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>467</v>
+        <v>528</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>468</v>
+        <v>529</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>469</v>
+        <v>530</v>
       </c>
       <c r="H6" s="7">
         <v>187</v>
       </c>
       <c r="I6" s="7">
-        <v>322526</v>
+        <v>284412</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>470</v>
+        <v>531</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>471</v>
+        <v>532</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>472</v>
+        <v>533</v>
       </c>
       <c r="M6" s="7">
         <v>345</v>
       </c>
       <c r="N6" s="7">
-        <v>671352</v>
+        <v>655175</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>446</v>
+        <v>233</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>473</v>
+        <v>534</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>474</v>
+        <v>535</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7249,7 +8086,7 @@
         <v>172</v>
       </c>
       <c r="D7" s="7">
-        <v>377679</v>
+        <v>399987</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>37</v>
@@ -7264,7 +8101,7 @@
         <v>207</v>
       </c>
       <c r="I7" s="7">
-        <v>354957</v>
+        <v>313200</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>37</v>
@@ -7279,7 +8116,7 @@
         <v>379</v>
       </c>
       <c r="N7" s="7">
-        <v>732636</v>
+        <v>713187</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>37</v>
@@ -7302,46 +8139,46 @@
         <v>5</v>
       </c>
       <c r="D8" s="7">
-        <v>4244</v>
+        <v>3992</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>475</v>
+        <v>536</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>158</v>
+        <v>537</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>476</v>
+        <v>538</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
       </c>
       <c r="I8" s="7">
-        <v>1809</v>
+        <v>1563</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>160</v>
+        <v>301</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>477</v>
+        <v>539</v>
       </c>
       <c r="M8" s="7">
         <v>7</v>
       </c>
       <c r="N8" s="7">
-        <v>6053</v>
+        <v>5555</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>478</v>
+        <v>457</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>11</v>
+        <v>341</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>479</v>
+        <v>540</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7353,46 +8190,46 @@
         <v>29</v>
       </c>
       <c r="D9" s="7">
-        <v>47376</v>
+        <v>48270</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>480</v>
+        <v>541</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>481</v>
+        <v>542</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>482</v>
+        <v>543</v>
       </c>
       <c r="H9" s="7">
         <v>31</v>
       </c>
       <c r="I9" s="7">
-        <v>32875</v>
+        <v>30917</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>483</v>
+        <v>544</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>484</v>
+        <v>545</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>485</v>
+        <v>546</v>
       </c>
       <c r="M9" s="7">
         <v>60</v>
       </c>
       <c r="N9" s="7">
-        <v>80251</v>
+        <v>79188</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>486</v>
+        <v>547</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>487</v>
+        <v>544</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>488</v>
+        <v>548</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7404,46 +8241,46 @@
         <v>268</v>
       </c>
       <c r="D10" s="7">
-        <v>376776</v>
+        <v>371285</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>489</v>
+        <v>549</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>490</v>
+        <v>550</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>491</v>
+        <v>551</v>
       </c>
       <c r="H10" s="7">
         <v>428</v>
       </c>
       <c r="I10" s="7">
-        <v>464531</v>
+        <v>479613</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>492</v>
+        <v>552</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>493</v>
+        <v>474</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>61</v>
+        <v>553</v>
       </c>
       <c r="M10" s="7">
         <v>696</v>
       </c>
       <c r="N10" s="7">
-        <v>841307</v>
+        <v>850898</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>393</v>
+        <v>554</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>494</v>
+        <v>555</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>495</v>
+        <v>556</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7455,7 +8292,7 @@
         <v>302</v>
       </c>
       <c r="D11" s="7">
-        <v>428396</v>
+        <v>423547</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>37</v>
@@ -7470,7 +8307,7 @@
         <v>461</v>
       </c>
       <c r="I11" s="7">
-        <v>499215</v>
+        <v>512093</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>37</v>
@@ -7485,7 +8322,7 @@
         <v>763</v>
       </c>
       <c r="N11" s="7">
-        <v>927611</v>
+        <v>935640</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>37</v>
@@ -7508,46 +8345,46 @@
         <v>3</v>
       </c>
       <c r="D12" s="7">
-        <v>3350</v>
+        <v>3293</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>68</v>
+        <v>557</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>93</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>496</v>
+        <v>558</v>
       </c>
       <c r="H12" s="7">
         <v>4</v>
       </c>
       <c r="I12" s="7">
-        <v>2556</v>
+        <v>2454</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>497</v>
+        <v>39</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>93</v>
+        <v>339</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>498</v>
+        <v>559</v>
       </c>
       <c r="M12" s="7">
         <v>7</v>
       </c>
       <c r="N12" s="7">
-        <v>5906</v>
+        <v>5747</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>337</v>
+        <v>379</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>43</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>499</v>
+        <v>560</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7559,46 +8396,46 @@
         <v>32</v>
       </c>
       <c r="D13" s="7">
-        <v>31744</v>
+        <v>31230</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>500</v>
+        <v>515</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>501</v>
+        <v>561</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>502</v>
+        <v>562</v>
       </c>
       <c r="H13" s="7">
         <v>72</v>
       </c>
       <c r="I13" s="7">
-        <v>49009</v>
+        <v>45734</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>164</v>
+        <v>563</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>503</v>
+        <v>564</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>504</v>
+        <v>565</v>
       </c>
       <c r="M13" s="7">
         <v>104</v>
       </c>
       <c r="N13" s="7">
-        <v>80754</v>
+        <v>76964</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>505</v>
+        <v>566</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>506</v>
+        <v>567</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>507</v>
+        <v>568</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7610,46 +8447,46 @@
         <v>511</v>
       </c>
       <c r="D14" s="7">
-        <v>522158</v>
+        <v>501815</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>508</v>
+        <v>569</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>509</v>
+        <v>570</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>510</v>
+        <v>571</v>
       </c>
       <c r="H14" s="7">
         <v>772</v>
       </c>
       <c r="I14" s="7">
-        <v>558882</v>
+        <v>543814</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>511</v>
+        <v>572</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>512</v>
+        <v>429</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>513</v>
+        <v>573</v>
       </c>
       <c r="M14" s="7">
         <v>1283</v>
       </c>
       <c r="N14" s="7">
-        <v>1081039</v>
+        <v>1045629</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>85</v>
+        <v>574</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>514</v>
+        <v>575</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>515</v>
+        <v>576</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7661,7 +8498,7 @@
         <v>546</v>
       </c>
       <c r="D15" s="7">
-        <v>557252</v>
+        <v>536338</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>37</v>
@@ -7676,7 +8513,7 @@
         <v>848</v>
       </c>
       <c r="I15" s="7">
-        <v>610447</v>
+        <v>592002</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>37</v>
@@ -7691,7 +8528,7 @@
         <v>1394</v>
       </c>
       <c r="N15" s="7">
-        <v>1167699</v>
+        <v>1128340</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>37</v>
@@ -7714,46 +8551,46 @@
         <v>4</v>
       </c>
       <c r="D16" s="7">
-        <v>3693</v>
+        <v>3528</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>337</v>
+        <v>493</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>64</v>
+        <v>260</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>516</v>
+        <v>577</v>
       </c>
       <c r="H16" s="7">
         <v>14</v>
       </c>
       <c r="I16" s="7">
-        <v>7496</v>
+        <v>6734</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>517</v>
+        <v>536</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>116</v>
+        <v>379</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>518</v>
+        <v>578</v>
       </c>
       <c r="M16" s="7">
         <v>18</v>
       </c>
       <c r="N16" s="7">
-        <v>11188</v>
+        <v>10262</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>519</v>
+        <v>476</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>520</v>
+        <v>579</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>521</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7765,46 +8602,46 @@
         <v>94</v>
       </c>
       <c r="D17" s="7">
-        <v>96668</v>
+        <v>92294</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>522</v>
+        <v>580</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>523</v>
+        <v>581</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>524</v>
+        <v>582</v>
       </c>
       <c r="H17" s="7">
         <v>142</v>
       </c>
       <c r="I17" s="7">
-        <v>90493</v>
+        <v>84373</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>525</v>
+        <v>583</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>526</v>
+        <v>458</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>527</v>
+        <v>100</v>
       </c>
       <c r="M17" s="7">
         <v>236</v>
       </c>
       <c r="N17" s="7">
-        <v>187162</v>
+        <v>176667</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>528</v>
+        <v>584</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>529</v>
+        <v>585</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>530</v>
+        <v>586</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7816,46 +8653,46 @@
         <v>567</v>
       </c>
       <c r="D18" s="7">
-        <v>623629</v>
+        <v>791964</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>531</v>
+        <v>587</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>532</v>
+        <v>588</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>533</v>
+        <v>589</v>
       </c>
       <c r="H18" s="7">
         <v>985</v>
       </c>
       <c r="I18" s="7">
-        <v>649272</v>
+        <v>621774</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>534</v>
+        <v>590</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>535</v>
+        <v>591</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>536</v>
+        <v>592</v>
       </c>
       <c r="M18" s="7">
         <v>1552</v>
       </c>
       <c r="N18" s="7">
-        <v>1272902</v>
+        <v>1413737</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>537</v>
+        <v>593</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>538</v>
+        <v>594</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>278</v>
+        <v>595</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7867,7 +8704,7 @@
         <v>665</v>
       </c>
       <c r="D19" s="7">
-        <v>723990</v>
+        <v>887786</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>37</v>
@@ -7882,7 +8719,7 @@
         <v>1141</v>
       </c>
       <c r="I19" s="7">
-        <v>747261</v>
+        <v>712881</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>37</v>
@@ -7897,7 +8734,7 @@
         <v>1806</v>
       </c>
       <c r="N19" s="7">
-        <v>1471252</v>
+        <v>1600667</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>37</v>
@@ -7920,28 +8757,28 @@
         <v>4</v>
       </c>
       <c r="D20" s="7">
-        <v>3411</v>
+        <v>3180</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>539</v>
+        <v>596</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>93</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>326</v>
+        <v>597</v>
       </c>
       <c r="H20" s="7">
         <v>9</v>
       </c>
       <c r="I20" s="7">
-        <v>4196</v>
+        <v>3890</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>65</v>
+        <v>598</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>42</v>
+        <v>419</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>540</v>
@@ -7950,16 +8787,16 @@
         <v>13</v>
       </c>
       <c r="N20" s="7">
-        <v>7607</v>
+        <v>7070</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>541</v>
+        <v>476</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>139</v>
+        <v>419</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>498</v>
+        <v>559</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7971,46 +8808,46 @@
         <v>120</v>
       </c>
       <c r="D21" s="7">
-        <v>110635</v>
+        <v>104847</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>542</v>
+        <v>599</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>543</v>
+        <v>600</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>544</v>
+        <v>482</v>
       </c>
       <c r="H21" s="7">
         <v>124</v>
       </c>
       <c r="I21" s="7">
-        <v>74341</v>
+        <v>68423</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>545</v>
+        <v>601</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>546</v>
+        <v>602</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>547</v>
+        <v>603</v>
       </c>
       <c r="M21" s="7">
         <v>244</v>
       </c>
       <c r="N21" s="7">
-        <v>184976</v>
+        <v>173270</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>548</v>
+        <v>604</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>549</v>
+        <v>605</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>550</v>
+        <v>606</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -8022,46 +8859,46 @@
         <v>539</v>
       </c>
       <c r="D22" s="7">
-        <v>486112</v>
+        <v>453207</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>551</v>
+        <v>607</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>552</v>
+        <v>608</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>553</v>
+        <v>609</v>
       </c>
       <c r="H22" s="7">
         <v>869</v>
       </c>
       <c r="I22" s="7">
-        <v>518525</v>
+        <v>475592</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>554</v>
+        <v>610</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>555</v>
+        <v>311</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>556</v>
+        <v>107</v>
       </c>
       <c r="M22" s="7">
         <v>1408</v>
       </c>
       <c r="N22" s="7">
-        <v>1004637</v>
+        <v>928799</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>557</v>
+        <v>611</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>558</v>
+        <v>612</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>559</v>
+        <v>613</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8073,7 +8910,7 @@
         <v>663</v>
       </c>
       <c r="D23" s="7">
-        <v>600157</v>
+        <v>561234</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>37</v>
@@ -8088,7 +8925,7 @@
         <v>1002</v>
       </c>
       <c r="I23" s="7">
-        <v>597063</v>
+        <v>547905</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>37</v>
@@ -8103,7 +8940,7 @@
         <v>1665</v>
       </c>
       <c r="N23" s="7">
-        <v>1197220</v>
+        <v>1109139</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>37</v>
@@ -8123,49 +8960,49 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
+        <v>2</v>
+      </c>
+      <c r="D24" s="7">
+        <v>1392</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>614</v>
+      </c>
+      <c r="H24" s="7">
+        <v>2</v>
+      </c>
+      <c r="I24" s="7">
+        <v>718</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>615</v>
+      </c>
+      <c r="M24" s="7">
         <v>4</v>
       </c>
-      <c r="D24" s="7">
-        <v>3089</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>560</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>561</v>
-      </c>
-      <c r="H24" s="7">
-        <v>5</v>
-      </c>
-      <c r="I24" s="7">
-        <v>2202</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>435</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="M24" s="7">
-        <v>9</v>
-      </c>
       <c r="N24" s="7">
-        <v>5291</v>
+        <v>2110</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>415</v>
+        <v>43</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>40</v>
+        <v>340</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8174,49 +9011,49 @@
         <v>18</v>
       </c>
       <c r="C25" s="7">
-        <v>225</v>
+        <v>93</v>
       </c>
       <c r="D25" s="7">
-        <v>151830</v>
+        <v>61269</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>563</v>
+        <v>616</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>564</v>
+        <v>617</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>565</v>
+        <v>618</v>
       </c>
       <c r="H25" s="7">
-        <v>455</v>
+        <v>144</v>
       </c>
       <c r="I25" s="7">
-        <v>358055</v>
+        <v>276398</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>566</v>
+        <v>619</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>567</v>
+        <v>620</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>568</v>
+        <v>621</v>
       </c>
       <c r="M25" s="7">
-        <v>680</v>
+        <v>237</v>
       </c>
       <c r="N25" s="7">
-        <v>509885</v>
+        <v>337667</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>569</v>
+        <v>622</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>570</v>
+        <v>623</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>571</v>
+        <v>624</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8225,49 +9062,49 @@
         <v>27</v>
       </c>
       <c r="C26" s="7">
-        <v>799</v>
+        <v>475</v>
       </c>
       <c r="D26" s="7">
-        <v>542835</v>
+        <v>305504</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>572</v>
+        <v>625</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>573</v>
+        <v>626</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>574</v>
+        <v>627</v>
       </c>
       <c r="H26" s="7">
-        <v>1248</v>
+        <v>681</v>
       </c>
       <c r="I26" s="7">
-        <v>666380</v>
+        <v>331252</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>575</v>
+        <v>628</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>576</v>
+        <v>629</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>577</v>
+        <v>630</v>
       </c>
       <c r="M26" s="7">
-        <v>2047</v>
+        <v>1156</v>
       </c>
       <c r="N26" s="7">
-        <v>1209215</v>
+        <v>636756</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>578</v>
+        <v>631</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>579</v>
+        <v>632</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>580</v>
+        <v>630</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8276,10 +9113,10 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>1028</v>
+        <v>570</v>
       </c>
       <c r="D27" s="7">
-        <v>697754</v>
+        <v>368165</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>37</v>
@@ -8291,10 +9128,10 @@
         <v>37</v>
       </c>
       <c r="H27" s="7">
-        <v>1708</v>
+        <v>827</v>
       </c>
       <c r="I27" s="7">
-        <v>1026637</v>
+        <v>608368</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>37</v>
@@ -8306,10 +9143,10 @@
         <v>37</v>
       </c>
       <c r="M27" s="7">
-        <v>2736</v>
+        <v>1397</v>
       </c>
       <c r="N27" s="7">
-        <v>1724392</v>
+        <v>976533</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>37</v>
@@ -8323,55 +9160,55 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>157</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="D28" s="7">
-        <v>23764</v>
+        <v>1470</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>183</v>
+        <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>13</v>
+        <v>633</v>
       </c>
       <c r="H28" s="7">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="I28" s="7">
-        <v>18259</v>
+        <v>1234</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>92</v>
+        <v>136</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>139</v>
+        <v>260</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>581</v>
+        <v>398</v>
       </c>
       <c r="M28" s="7">
-        <v>56</v>
+        <v>5</v>
       </c>
       <c r="N28" s="7">
-        <v>42023</v>
+        <v>2705</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>582</v>
+        <v>159</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>583</v>
+        <v>516</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8380,49 +9217,49 @@
         <v>18</v>
       </c>
       <c r="C29" s="7">
-        <v>512</v>
+        <v>132</v>
       </c>
       <c r="D29" s="7">
-        <v>461129</v>
+        <v>80941</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>584</v>
+        <v>634</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>242</v>
+        <v>635</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>585</v>
+        <v>636</v>
       </c>
       <c r="H29" s="7">
-        <v>844</v>
+        <v>311</v>
       </c>
       <c r="I29" s="7">
-        <v>637205</v>
+        <v>151994</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>586</v>
+        <v>637</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>100</v>
+        <v>638</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>587</v>
+        <v>639</v>
       </c>
       <c r="M29" s="7">
-        <v>1356</v>
+        <v>443</v>
       </c>
       <c r="N29" s="7">
-        <v>1098334</v>
+        <v>232934</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>588</v>
+        <v>640</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>589</v>
+        <v>641</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>590</v>
+        <v>642</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8431,49 +9268,49 @@
         <v>27</v>
       </c>
       <c r="C30" s="7">
-        <v>2842</v>
+        <v>324</v>
       </c>
       <c r="D30" s="7">
-        <v>2900335</v>
+        <v>200348</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>591</v>
+        <v>643</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>592</v>
+        <v>644</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>593</v>
+        <v>645</v>
       </c>
       <c r="H30" s="7">
-        <v>4489</v>
+        <v>567</v>
       </c>
       <c r="I30" s="7">
-        <v>3180117</v>
+        <v>272603</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>594</v>
+        <v>646</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>595</v>
+        <v>647</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>591</v>
+        <v>648</v>
       </c>
       <c r="M30" s="7">
-        <v>7331</v>
+        <v>891</v>
       </c>
       <c r="N30" s="7">
-        <v>6080452</v>
+        <v>472951</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>596</v>
+        <v>649</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>597</v>
+        <v>650</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>598</v>
+        <v>651</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8482,63 +9319,270 @@
         <v>3</v>
       </c>
       <c r="C31" s="7">
+        <v>458</v>
+      </c>
+      <c r="D31" s="7">
+        <v>282759</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H31" s="7">
+        <v>881</v>
+      </c>
+      <c r="I31" s="7">
+        <v>425831</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="M31" s="7">
+        <v>1339</v>
+      </c>
+      <c r="N31" s="7">
+        <v>708590</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="7">
+        <v>22</v>
+      </c>
+      <c r="D32" s="7">
+        <v>22724</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>652</v>
+      </c>
+      <c r="H32" s="7">
+        <v>34</v>
+      </c>
+      <c r="I32" s="7">
+        <v>16593</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="M32" s="7">
+        <v>56</v>
+      </c>
+      <c r="N32" s="7">
+        <v>39317</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C33" s="7">
+        <v>512</v>
+      </c>
+      <c r="D33" s="7">
+        <v>442206</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>653</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>654</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>655</v>
+      </c>
+      <c r="H33" s="7">
+        <v>844</v>
+      </c>
+      <c r="I33" s="7">
+        <v>686628</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>656</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>657</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>658</v>
+      </c>
+      <c r="M33" s="7">
+        <v>1356</v>
+      </c>
+      <c r="N33" s="7">
+        <v>1128833</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>659</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>660</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C34" s="7">
+        <v>2842</v>
+      </c>
+      <c r="D34" s="7">
+        <v>2994887</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>662</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>663</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>664</v>
+      </c>
+      <c r="H34" s="7">
+        <v>4489</v>
+      </c>
+      <c r="I34" s="7">
+        <v>3009059</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>665</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>666</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>667</v>
+      </c>
+      <c r="M34" s="7">
+        <v>7331</v>
+      </c>
+      <c r="N34" s="7">
+        <v>6003946</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>668</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>669</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="7">
         <v>3376</v>
       </c>
-      <c r="D31" s="7">
-        <v>3385228</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="H31" s="7">
+      <c r="D35" s="7">
+        <v>3459817</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H35" s="7">
         <v>5367</v>
       </c>
-      <c r="I31" s="7">
-        <v>3835581</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="M31" s="7">
+      <c r="I35" s="7">
+        <v>3712280</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="M35" s="7">
         <v>8743</v>
       </c>
-      <c r="N31" s="7">
-        <v>7220809</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>179</v>
+      <c r="N35" s="7">
+        <v>7172097</v>
+      </c>
+      <c r="O35" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>199</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
